--- a/client/public/assets/data/Sample_Sheet_README.xlsx
+++ b/client/public/assets/data/Sample_Sheet_README.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chop2/Projects/nci-webtools-ccr-methylscape/client/public/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B3FA33-A456-354C-AF54-FB5DC6C28177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC5B3B8-70F2-EF45-80BD-956FD69A3A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>Surgical_Case</t>
   </si>
   <si>
-    <t>Tumor_Site</t>
-  </si>
-  <si>
     <t>PI_Collaborator</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>sample processing date, optional</t>
+  </si>
+  <si>
+    <t>Tumor_site</t>
   </si>
 </sst>
 </file>
@@ -698,9 +698,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -738,7 +738,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -844,7 +844,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -986,7 +986,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,7 +997,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1119,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1212,18 +1212,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1516,6 +1516,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -1533,15 +1542,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1565,6 +1565,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64FF29F8-8070-4A35-A655-8847728F969C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1444505D-B137-41AA-95C2-351F85CB1F6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1576,14 +1584,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64FF29F8-8070-4A35-A655-8847728F969C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{14b77578-9773-42d5-8507-251ca2dc2b06}" enabled="0" method="" siteId="{14b77578-9773-42d5-8507-251ca2dc2b06}" removed="1"/>
